--- a/cm/SystemConst.xlsx
+++ b/cm/SystemConst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC6993-F6B7-4247-BCBC-7E32EE4395B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD1C027-F93F-4AD8-A3DB-FA558CA9A277}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{5FCDF9F3-0C51-4D8A-86AB-8CFC9F0901C7}"/>
   </bookViews>
@@ -58,22 +58,10 @@
     <t>Maxmum Torque</t>
   </si>
   <si>
-    <t>TRQ_MAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRQ_MIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Minmum Torque</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ERPM_MAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RPM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>Maxmum Engine Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRQ_MAX_SC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRQ_MIN_SC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERPM_MAX_SC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>3000</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>-3000</v>
@@ -558,24 +558,24 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>10000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
